--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Красные вина</t>
   </si>
   <si>
-    <t xml:space="preserve">Для романтичного вечера</t>
+    <t xml:space="preserve">Для активного отдыха</t>
   </si>
   <si>
     <t xml:space="preserve">c8a5367c-6483-46f3-a18f-9c7a1cda0ff2</t>
@@ -148,13 +148,13 @@
     <t xml:space="preserve">Кьянти, Серристори</t>
   </si>
   <si>
-    <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
+    <t xml:space="preserve">Супервкусное красное вино</t>
   </si>
   <si>
     <t xml:space="preserve">c8a5367c-6483-46f3-a18f-9c7a1cda0ff5</t>
   </si>
   <si>
-    <t xml:space="preserve">Калкалкал</t>
+    <t xml:space="preserve">просто вино </t>
   </si>
   <si>
     <t xml:space="preserve">Какой-то потрясающее вино</t>
@@ -330,7 +330,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve">c8a5367c-6483-46f3-a18f-9c7a1cda0ff6</t>
   </si>
   <si>
-    <t xml:space="preserve">Яблочный фреш</t>
+    <t xml:space="preserve">Апельсиновый фреш</t>
   </si>
   <si>
     <t xml:space="preserve">Свежевыжатый сок</t>
@@ -329,8 +329,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t xml:space="preserve">b569c0f4-245c-41b5-aeb7-74ff5a3f7b3r</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Холодные закуски</t>
   </si>
   <si>
-    <t xml:space="preserve">К пиву</t>
+    <t xml:space="preserve">Прекрасные потрясающие закуски</t>
   </si>
   <si>
     <t xml:space="preserve">961d4b9e-053e-456b-8d8a-3f5c50cd1c69</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Сельдь Бисмарк</t>
   </si>
   <si>
-    <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
+    <t xml:space="preserve">Нетрадиционная сельд из Баварии</t>
   </si>
   <si>
     <t xml:space="preserve">7c8a764b-bd7f-4a45-a33e-4c7a3d8f10fc</t>
@@ -112,6 +112,9 @@
     <t xml:space="preserve">0f7a75c1-8a74-4b27-90b5-18af2f9d4d78</t>
   </si>
   <si>
+    <t xml:space="preserve">Сверхалкогольное меню</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алкогольное меню</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t xml:space="preserve">Красные вина</t>
   </si>
   <si>
-    <t xml:space="preserve">Для активного отдыха</t>
+    <t xml:space="preserve">Для отдыха и хорошего времпрепровождения</t>
   </si>
   <si>
     <t xml:space="preserve">c8a5367c-6483-46f3-a18f-9c7a1cda0ff2</t>
@@ -182,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">Свежевыжатый сок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c8a5367c-6483-46f3-a18f-9c7a1cda0ff7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оранжевый фреш</t>
   </si>
 </sst>
 </file>
@@ -329,8 +338,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +505,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
@@ -505,13 +514,13 @@
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4"/>
@@ -520,13 +529,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>2700.79</v>
@@ -536,13 +545,13 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>3100.33</v>
@@ -552,29 +561,32 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>1850.42</v>
+        <v>20000</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.4328</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2321</v>
@@ -585,13 +597,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
@@ -600,13 +612,13 @@
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="4"/>
@@ -615,13 +627,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>1000</v>
@@ -630,7 +642,23 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.12392</v>
+      </c>
+    </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -339,10 +339,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.64"/>
@@ -572,7 +572,7 @@
       <c r="F14" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>0.4328</v>
       </c>
     </row>
